--- a/database/001_Traits.xlsx
+++ b/database/001_Traits.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sheng\Documents\Github\pageant\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E9B3A-C5B6-4B7F-8494-860C2C05F371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8B062-EF1F-4570-8582-8FD7E33CD857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="840" windowWidth="17280" windowHeight="9132" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Genetic_charactiristics" sheetId="8" r:id="rId1"/>
+    <sheet name="Charactiristics" sheetId="8" r:id="rId1"/>
     <sheet name="Disease_risk" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>心房颤动</t>
   </si>
@@ -50,9 +50,6 @@
     <t>alcohol flush</t>
   </si>
   <si>
-    <t>Bitter Taste Perception</t>
-  </si>
-  <si>
     <t>Earwax Type</t>
   </si>
   <si>
@@ -95,28 +92,6 @@
     <t>偏头痛，是临床最常见的原发性头痛类型，临床以发作性中重度、搏动样头痛为主要表现，头痛多为偏侧，一般持续4～72小时，可伴有恶心、呕吐，光、声刺激或日常活动均可加重头痛，安静环境、休息可缓解头痛。偏头痛是一种常见的慢性神经血管性疾患，多起病于儿童和青春期，中青年期达发病高峰，女性多见，男女患者比例约为1∶2～3，人群中患病率为5%～10%，常有遗传背景。</t>
   </si>
   <si>
-    <t>男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-  </si>
-  <si>
-    <t>中文名称</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>疾病系统</t>
-  </si>
-  <si>
-    <t>平均风险</t>
-  </si>
-  <si>
-    <t>疾病简介</t>
-  </si>
-  <si>
     <t>心脑血管系统</t>
   </si>
   <si>
@@ -132,9 +107,6 @@
     <t>酒精代谢能力</t>
   </si>
   <si>
-    <t>苦味识别</t>
-  </si>
-  <si>
     <t>结肠直肠癌</t>
   </si>
   <si>
@@ -156,22 +128,6 @@
     <t>肌纤维类型</t>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的指标代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,9 +138,6 @@
     <t>P0003</t>
   </si>
   <si>
-    <t>P0004</t>
-  </si>
-  <si>
     <t>P0005</t>
   </si>
   <si>
@@ -225,10 +178,6 @@
     <t>R0090</t>
   </si>
   <si>
-    <t>指标代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -236,26 +185,10 @@
     <t>A0002</t>
   </si>
   <si>
-    <t>A0004</t>
-  </si>
-  <si>
-    <t>A0005</t>
-  </si>
-  <si>
     <t>Rh血型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Alzheimer's disease risk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer risk</t>
-  </si>
-  <si>
-    <t>Gout risk</t>
-  </si>
-  <si>
     <t>Rh blood type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -293,6 +226,146 @@
   </si>
   <si>
     <t>II型糖尿病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Altruism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利他主义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease_system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population_risk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease_description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APOE基因型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APOE type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIV resistance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIV抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcohol consumption ability</t>
+  </si>
+  <si>
+    <t>饮酒能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼腥味敏感度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensitivity to fishy smell</t>
+  </si>
+  <si>
+    <t>咖啡因代谢</t>
+  </si>
+  <si>
+    <t>Caffeine metabolism</t>
+  </si>
+  <si>
+    <t>P0009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶酸需求量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO基因型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO 基因上的位点 rs9939609，T/T是正常基因型，如果其中有一个T 变成A，肥胖风险增加；如果两个T 都变异成A，那么肥胖风险进一步提高。</t>
+  </si>
+  <si>
+    <t>研究发现，MTHFR 的活性与C677T（代码rs1801133）和A1298C（代码rs1801131）这两个基因位点的变异有关，而MTRR 的活性与A66G（代码rs1801394）基因位点的变异有关。如果这三个基因位点有一个杂合子的时候，叶酸代谢能力就会下降。如果有一个是变异纯合子，叶酸代谢能力就会更大幅度地下降，因此，杂合子和变异纯合子携带者需要额外补充叶酸甚至是叶酸的活性物质。笔者的这三个基因位点的值分别是rs1801133 为 C/T、rs1801131 为T/T、rs1801394 为A/A，所以需要适当地补充叶酸。</t>
+  </si>
+  <si>
+    <t>CYP1A2 基因上可以有很多种变异，最主要的是当基因位点rs762551从A 变成了C，产生一个叫CYP1A2*1F 的变异。一个人只需要一个“C”（也就是携带者），就会导致CYP1A2 的活性下降，成为咖啡因代谢“缓慢型”。</t>
+  </si>
+  <si>
+    <t>rs4988235 位点来评估乳糖耐受能力。如果两条染色体都是C，那就会出现乳糖不耐受；反之，只要有一条是T，就会出现乳糖耐受。</t>
+  </si>
+  <si>
+    <t>Demand for folic acid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +462,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -693,183 +767,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -881,70 +987,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6">
         <v>0.10299999999999999</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -953,145 +1062,145 @@
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6">
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6">
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6">
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/database/001_Traits.xlsx
+++ b/database/001_Traits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sheng\Documents\Github\pageant\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8B062-EF1F-4570-8582-8FD7E33CD857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D43A8A-5B25-4DED-AEA0-5DCFC5E5A084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charactiristics" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>心房颤动</t>
   </si>
@@ -47,15 +47,9 @@
     <t>ABO blood type</t>
   </si>
   <si>
-    <t>alcohol flush</t>
-  </si>
-  <si>
     <t>Earwax Type</t>
   </si>
   <si>
-    <t>muscle fiber type</t>
-  </si>
-  <si>
     <t>Alcohol metabolism</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>P0002</t>
   </si>
   <si>
-    <t>P0003</t>
-  </si>
-  <si>
     <t>P0005</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
     <t>R0004</t>
   </si>
   <si>
-    <t>R0005</t>
-  </si>
-  <si>
     <t>R0013</t>
   </si>
   <si>
@@ -213,10 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Type2 diabetes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>胰腺癌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -225,10 +209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>II型糖尿病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A0010</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -366,6 +346,14 @@
   </si>
   <si>
     <t>Demand for folic acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcohol flush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muscle fiber type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -770,212 +758,212 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F16" t="s">
         <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -993,67 +981,67 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="6">
         <v>0.10299999999999999</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1062,146 +1050,140 @@
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6">
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6">
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6">
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J8">

--- a/database/001_Traits.xlsx
+++ b/database/001_Traits.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sheng\Documents\Github\pageant\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D43A8A-5B25-4DED-AEA0-5DCFC5E5A084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A880F-4D6E-4CBA-829C-05426261CF32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charactiristics" sheetId="8" r:id="rId1"/>
     <sheet name="Disease_risk" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Disease_risk!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Disease_risk!$A$1:$J$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>心房颤动</t>
   </si>
@@ -80,9 +80,6 @@
     <t>精神分裂症</t>
   </si>
   <si>
-    <t>schizophrenia</t>
-  </si>
-  <si>
     <t>偏头痛，是临床最常见的原发性头痛类型，临床以发作性中重度、搏动样头痛为主要表现，头痛多为偏侧，一般持续4～72小时，可伴有恶心、呕吐，光、声刺激或日常活动均可加重头痛，安静环境、休息可缓解头痛。偏头痛是一种常见的慢性神经血管性疾患，多起病于儿童和青春期，中青年期达发病高峰，女性多见，男女患者比例约为1∶2～3，人群中患病率为5%～10%，常有遗传背景。</t>
   </si>
   <si>
@@ -181,179 +178,211 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>乳腺癌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胰腺癌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结肠癌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Altruism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利他主义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease_system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>population_risk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease_description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APOE基因型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APOE type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIV resistance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIV抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcohol consumption ability</t>
+  </si>
+  <si>
+    <t>饮酒能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼腥味敏感度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensitivity to fishy smell</t>
+  </si>
+  <si>
+    <t>咖啡因代谢</t>
+  </si>
+  <si>
+    <t>Caffeine metabolism</t>
+  </si>
+  <si>
+    <t>P0009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶酸需求量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO基因型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO 基因上的位点 rs9939609，T/T是正常基因型，如果其中有一个T 变成A，肥胖风险增加；如果两个T 都变异成A，那么肥胖风险进一步提高。</t>
+  </si>
+  <si>
+    <t>研究发现，MTHFR 的活性与C677T（代码rs1801133）和A1298C（代码rs1801131）这两个基因位点的变异有关，而MTRR 的活性与A66G（代码rs1801394）基因位点的变异有关。如果这三个基因位点有一个杂合子的时候，叶酸代谢能力就会下降。如果有一个是变异纯合子，叶酸代谢能力就会更大幅度地下降，因此，杂合子和变异纯合子携带者需要额外补充叶酸甚至是叶酸的活性物质。笔者的这三个基因位点的值分别是rs1801133 为 C/T、rs1801131 为T/T、rs1801394 为A/A，所以需要适当地补充叶酸。</t>
+  </si>
+  <si>
+    <t>CYP1A2 基因上可以有很多种变异，最主要的是当基因位点rs762551从A 变成了C，产生一个叫CYP1A2*1F 的变异。一个人只需要一个“C”（也就是携带者），就会导致CYP1A2 的活性下降，成为咖啡因代谢“缓慢型”。</t>
+  </si>
+  <si>
+    <t>Demand for folic acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcohol flush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muscle fiber type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age-related macular degeneration, also known as age-related macular degeneration (AMD), is an aging change in the structure of the macular area.This disease is characterized by retinal pigment epithelium (RPE) and choroid lesions in the macular retina and the subretinal vegetative structures that lead to progressive visual dysfunction and central vision loss.The prevalence of AMD in China keeps rising and increases with the increase of the age of the patients, and the disease has become the main cause of irreversible visual impairment in the elderly population in China.There was no significant difference in the prevalence of AMD between men and women.Data from September 2002 to June 2003 showed that the prevalence of AMD was 15.5% in people aged ≥50 years in Caojiadu Street, Jing 'an District, Shanghai, with wet AMD accounting for 11.9%.In 1998, the prevalence rate of AMD among people over 50 years old in Doumen County, Guangdong was 8.4%, among which the detection rate of AMD among patients aged 50-59 years old, 60-69 years old and over 70 years old was 2.9%, 7.8% and 12.9%, respectively.The prevalence of AMD in some economically developed regions of China is close to the level of western developed countries.</t>
+  </si>
+  <si>
+    <t>Atrial fibrillation, also known as atrial fibrillation, atrial fibrillation, is a kind of abnormal heart rhythm/arrhythmia, characterized by the rapid and irregular beating of the heart.Atrial fibrillation may initially last for a relatively short period of time, but the duration of the attack may become longer and may not even be alleviated.Most episodes are asymptomatic, and sometimes the patient may experience palpitations, fainting, difficulty breathing, and chest pain.Atrial fibrillation increases the risk of heart failure, dementia and stroke.The epidemiological data of atrial fibrillation in China show that the prevalence rate of atrial fibrillation in China is 0.77%, and the prevalence rate in males (0.9%) is higher than that in females (0.7%). It is estimated that there are more than 10 million patients with atrial fibrillation in China.Atrial fibrillation mainly occurs in the elderly with organic heart disease, a small number of patients with atrial fibrillation without any organic heart disease, known as isolated atrial fibrillation.</t>
+  </si>
+  <si>
+    <t>Coronary artery disease is a disease caused by damage to the coronary arteries.The disease is usually associated with plaque buildup and inflammation of the blood vessels that contain lipids.As plaque builds up, the diameter of the coronary arteries that allow blood to circulate decreases, thereby reducing the flow of blood, oxygen and nutrients.Eventually, a decrease in blood flow can cause chest pain, shortness of breath, or other symptoms.A complete blockage of a coronary artery can cause a heart attack.The incidence of the disease is 5 to 9 percent in people 20 years of age and older.The mortality rate increased with age and was higher in males than females, especially in the 35-55 age group.After the age of 55, the death rate for men declined, but for women it continued to rise.After the ages of 70 to 75, women die at a higher rate than men of the same age.Coronary artery disease affects people of all RACES, but it is particularly prevalent in black and Southeast Asian populations.</t>
+  </si>
+  <si>
+    <t>Migraine is the most common type of primary headache in clinic. The main clinical manifestations are moderate to severe and pulsating headache. Headache is mostly unilateral and lasts for 4 to 72 hours, with nausea and vomiting.Migraine is a common chronic neurovascular disease, more onset in children and adolescence, youth reached the peak of the disease, more women, male and female patients ratio is about 1∶2 ~ 3, the prevalence rate in the population is 5% ~ 10%, often genetic background.</t>
+  </si>
+  <si>
+    <t>Schizophrenia, is a group of serious mental illness with unknown etiology, mostly in young adults slow or subacute onset, clinical presentation is often the syndrome of different symptoms, involving perception, thinking, emotion and behavior and other various disorders as well as the incoordination of mental activities.Patients generally have clear consciousness and normal intelligence, but some patients may suffer cognitive impairment during the course of the disease.The course of the disease is generally delayed, showing repeated attacks, aggravation or deterioration, and some patients eventually appear recession and mental disability, but some patients can maintain the recovery or basic recovery after treatment.The world Health Organization estimates that the lifetime prevalence of schizophrenia is 3.8 to 8.4 per 1,000 people worldwide, and the lifetime prevalence of schizophrenia in the United States is as high as 13 per 1,000 people.According to the survey data of China in 1994, the prevalence rate was 7.11‰ in urban areas and 4.26‰ in rural areas</t>
+  </si>
+  <si>
+    <t>rs4988235 位点来评估乳糖耐受能力。如果两条染色体都是C，那就会出现乳糖不耐受；反之，只要有一条是T，就会出现乳糖耐受。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs4988235 was used to assess lactose tolerance.If both chromosomes are C, lactose intolerance occurs;On the other hand, as long as one of them is T, lactose intolerance occurs.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are many variations on CYP1A2 gene, the most important of which is when the gene locus RS762551 changes from A to C, producing A mutation called CYP1A2*1F.All a person needs is a "C" (that is, a carrier), which leads to decreased CYP1A2 activity and a "slow" version of caffeine metabolism.</t>
+  </si>
+  <si>
+    <t>The locus rs9939609 on the FTO gene, T/T is the normal genotype. If one of the T turns into A, the risk of obesity is increased.If both T's mutate into A, the risk of obesity increases further.</t>
+  </si>
+  <si>
+    <t>It was found that the activity of MTHFR was related to the variation of C677T (code rs1801133) and A1298C (code rs1801131), while the activity of MTRR was related to the variation of A66G (code RS1801394).If one of these three loci is heterozygous, folate metabolism is reduced.If one is a mutant homozygous, folic acid metabolism decreases more dramatically, so heterozygous and mutant homozygous carriers need additional folic acid or even folic acid's active substance.The author's values of these three gene loci are rs1801133 as C/T, RS1801131 as T/T, and RS1801394 as A/A, so appropriate folic acid supplementation is required.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Breast cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳腺癌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Prostate cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colorecta cancer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胰腺癌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结肠癌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Altruism</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利他主义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trait_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>disease_system</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinese_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>population_risk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>disease_description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>female</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>male</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APOE基因型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APOE type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reference</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIV resistance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIV抗性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alcohol consumption ability</t>
-  </si>
-  <si>
-    <t>饮酒能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼腥味敏感度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sensitivity to fishy smell</t>
-  </si>
-  <si>
-    <t>咖啡因代谢</t>
-  </si>
-  <si>
-    <t>Caffeine metabolism</t>
-  </si>
-  <si>
-    <t>P0009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶酸需求量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO基因型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO 基因上的位点 rs9939609，T/T是正常基因型，如果其中有一个T 变成A，肥胖风险增加；如果两个T 都变异成A，那么肥胖风险进一步提高。</t>
-  </si>
-  <si>
-    <t>研究发现，MTHFR 的活性与C677T（代码rs1801133）和A1298C（代码rs1801131）这两个基因位点的变异有关，而MTRR 的活性与A66G（代码rs1801394）基因位点的变异有关。如果这三个基因位点有一个杂合子的时候，叶酸代谢能力就会下降。如果有一个是变异纯合子，叶酸代谢能力就会更大幅度地下降，因此，杂合子和变异纯合子携带者需要额外补充叶酸甚至是叶酸的活性物质。笔者的这三个基因位点的值分别是rs1801133 为 C/T、rs1801131 为T/T、rs1801394 为A/A，所以需要适当地补充叶酸。</t>
-  </si>
-  <si>
-    <t>CYP1A2 基因上可以有很多种变异，最主要的是当基因位点rs762551从A 变成了C，产生一个叫CYP1A2*1F 的变异。一个人只需要一个“C”（也就是携带者），就会导致CYP1A2 的活性下降，成为咖啡因代谢“缓慢型”。</t>
-  </si>
-  <si>
-    <t>rs4988235 位点来评估乳糖耐受能力。如果两条染色体都是C，那就会出现乳糖不耐受；反之，只要有一条是T，就会出现乳糖耐受。</t>
-  </si>
-  <si>
-    <t>Demand for folic acid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alcohol flush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muscle fiber type</t>
+  </si>
+  <si>
+    <t>Colon cancer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +479,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +505,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -755,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -766,204 +798,219 @@
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
         <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -975,13 +1022,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:C12"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -989,39 +1036,39 @@
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
@@ -1029,19 +1076,22 @@
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="6">
         <v>0.10299999999999999</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1049,144 +1099,156 @@
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="6">
         <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6">
         <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6">
         <v>2.3199999999999998E-2</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="6">
         <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="2"/>
       <c r="C12" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K8">
     <sortCondition ref="B2:B8"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/database/001_Traits.xlsx
+++ b/database/001_Traits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sheng\Documents\Github\pageant\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A880F-4D6E-4CBA-829C-05426261CF32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39A625-2BAF-401E-8D43-5B67BAE8FB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charactiristics" sheetId="8" r:id="rId1"/>
@@ -362,10 +362,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rs4988235 was used to assess lactose tolerance.If both chromosomes are C, lactose intolerance occurs;On the other hand, as long as one of them is T, lactose intolerance occurs.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>There are many variations on CYP1A2 gene, the most important of which is when the gene locus RS762551 changes from A to C, producing A mutation called CYP1A2*1F.All a person needs is a "C" (that is, a carrier), which leads to decreased CYP1A2 activity and a "slow" version of caffeine metabolism.</t>
   </si>
   <si>
@@ -383,6 +379,10 @@
   </si>
   <si>
     <t>Colon cancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs4988235 was used to assess lactose tolerance.If both chromosomes are C, lactose intolerance occurs;On the other hand, as long as one of them is T, lactose tolerance occurs.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -879,7 +879,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>97</v>
@@ -973,7 +973,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
         <v>87</v>
@@ -990,7 +990,7 @@
         <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -1007,7 +1007,7 @@
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
         <v>85</v>
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1208,7 +1208,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>49</v>
@@ -1222,7 +1222,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>51</v>
@@ -1236,7 +1236,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>52</v>
